--- a/Code/Results/Cases/Case_0_192/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_192/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9.731277395449798</v>
+        <v>13.46550996381809</v>
       </c>
       <c r="D2">
-        <v>6.030942691730759</v>
+        <v>9.037691232435078</v>
       </c>
       <c r="E2">
-        <v>8.463614237116667</v>
+        <v>14.17234311566548</v>
       </c>
       <c r="F2">
-        <v>22.70598384147319</v>
+        <v>35.06066457061306</v>
       </c>
       <c r="G2">
-        <v>26.04243213675002</v>
+        <v>37.84169845501361</v>
       </c>
       <c r="H2">
-        <v>9.756901380775778</v>
+        <v>16.63956290156992</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.971974440771552</v>
+        <v>10.60591078380693</v>
       </c>
       <c r="K2">
-        <v>17.15953216284332</v>
+        <v>14.57093058763786</v>
       </c>
       <c r="L2">
-        <v>5.481515453448789</v>
+        <v>9.734168444495468</v>
       </c>
       <c r="M2">
-        <v>14.3730827866841</v>
+        <v>18.0610291667824</v>
       </c>
       <c r="N2">
-        <v>12.9088556879412</v>
+        <v>18.61425711262354</v>
       </c>
       <c r="O2">
-        <v>16.36624735708029</v>
+        <v>26.52479751314108</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>9.434208750823746</v>
+        <v>13.44673030312472</v>
       </c>
       <c r="D3">
-        <v>5.871836303640083</v>
+        <v>9.02616321257651</v>
       </c>
       <c r="E3">
-        <v>8.415783611025134</v>
+        <v>14.19491578177187</v>
       </c>
       <c r="F3">
-        <v>22.45583835658501</v>
+        <v>35.13862235457602</v>
       </c>
       <c r="G3">
-        <v>25.63300524090818</v>
+        <v>37.92907678307952</v>
       </c>
       <c r="H3">
-        <v>9.795636614583261</v>
+        <v>16.68980471128704</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.019072727776777</v>
+        <v>10.62926462510353</v>
       </c>
       <c r="K3">
-        <v>16.04307783365129</v>
+        <v>14.22938384432856</v>
       </c>
       <c r="L3">
-        <v>5.512419040806266</v>
+        <v>9.749507728923547</v>
       </c>
       <c r="M3">
-        <v>13.70107326764823</v>
+        <v>17.9388952954114</v>
       </c>
       <c r="N3">
-        <v>12.99486907022458</v>
+        <v>18.65181194000182</v>
       </c>
       <c r="O3">
-        <v>16.32503336308243</v>
+        <v>26.60548198698259</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>9.252560210834961</v>
+        <v>13.43780655411631</v>
       </c>
       <c r="D4">
-        <v>5.774055820213156</v>
+        <v>9.020235064787107</v>
       </c>
       <c r="E4">
-        <v>8.390078725488712</v>
+        <v>14.210580812911</v>
       </c>
       <c r="F4">
-        <v>22.31976930375793</v>
+        <v>35.19401036964008</v>
       </c>
       <c r="G4">
-        <v>25.40642642036492</v>
+        <v>37.99306399821081</v>
       </c>
       <c r="H4">
-        <v>9.825619227019903</v>
+        <v>16.72321316538785</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.049666584918724</v>
+        <v>10.64449783093952</v>
       </c>
       <c r="K4">
-        <v>15.31668634506955</v>
+        <v>14.01679174851476</v>
       </c>
       <c r="L4">
-        <v>5.532416491877567</v>
+        <v>9.759507345446798</v>
       </c>
       <c r="M4">
-        <v>13.27464166226041</v>
+        <v>17.86560445839306</v>
       </c>
       <c r="N4">
-        <v>13.05122709791753</v>
+        <v>18.67660487773862</v>
       </c>
       <c r="O4">
-        <v>16.31328109582697</v>
+        <v>26.66026848123292</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>9.178834014649571</v>
+        <v>13.4348290307675</v>
       </c>
       <c r="D5">
-        <v>5.734241872379074</v>
+        <v>9.018110558995367</v>
       </c>
       <c r="E5">
-        <v>8.38051579343391</v>
+        <v>14.21741882707776</v>
       </c>
       <c r="F5">
-        <v>22.2686595540434</v>
+        <v>35.21846970849921</v>
       </c>
       <c r="G5">
-        <v>25.32026223772181</v>
+        <v>38.02173049634263</v>
       </c>
       <c r="H5">
-        <v>9.8393436992839</v>
+        <v>16.73747101671368</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.062551807855103</v>
+        <v>10.65093073946713</v>
       </c>
       <c r="K5">
-        <v>15.01036813133683</v>
+        <v>13.92955098204514</v>
       </c>
       <c r="L5">
-        <v>5.540822901435464</v>
+        <v>9.763728810624576</v>
       </c>
       <c r="M5">
-        <v>13.09761057710951</v>
+        <v>17.836188320585</v>
       </c>
       <c r="N5">
-        <v>13.07507027644614</v>
+        <v>18.68714504118716</v>
       </c>
       <c r="O5">
-        <v>16.3117872136346</v>
+        <v>26.68391153685605</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9.166613019179328</v>
+        <v>13.43437450648271</v>
       </c>
       <c r="D6">
-        <v>5.727634393636652</v>
+        <v>9.017775435274789</v>
       </c>
       <c r="E6">
-        <v>8.378982667930723</v>
+        <v>14.21858172966471</v>
       </c>
       <c r="F6">
-        <v>22.26043272742239</v>
+        <v>35.22264511239875</v>
       </c>
       <c r="G6">
-        <v>25.30632475378309</v>
+        <v>38.02664679753678</v>
       </c>
       <c r="H6">
-        <v>9.841712104160239</v>
+        <v>16.73987739475895</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.064716543513295</v>
+        <v>10.652012538143</v>
       </c>
       <c r="K6">
-        <v>14.95888099050149</v>
+        <v>13.91503152525671</v>
       </c>
       <c r="L6">
-        <v>5.542234324476363</v>
+        <v>9.764438643689745</v>
       </c>
       <c r="M6">
-        <v>13.06802501300802</v>
+        <v>17.83133166047465</v>
       </c>
       <c r="N6">
-        <v>13.07908196750365</v>
+        <v>18.68892163448967</v>
       </c>
       <c r="O6">
-        <v>16.31173481737714</v>
+        <v>26.6879169381837</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>9.251564564841665</v>
+        <v>13.43776372585182</v>
       </c>
       <c r="D7">
-        <v>5.773518670359441</v>
+        <v>9.020205231029887</v>
       </c>
       <c r="E7">
-        <v>8.389946076695047</v>
+        <v>14.21067119242767</v>
       </c>
       <c r="F7">
-        <v>22.31906254625425</v>
+        <v>35.19433259566969</v>
       </c>
       <c r="G7">
-        <v>25.40523951539209</v>
+        <v>37.99344012423033</v>
       </c>
       <c r="H7">
-        <v>9.825798289472941</v>
+        <v>16.72340284576795</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.049838671286404</v>
+        <v>10.64458367470194</v>
       </c>
       <c r="K7">
-        <v>15.31259699801585</v>
+        <v>14.01561749177645</v>
       </c>
       <c r="L7">
-        <v>5.532528821654855</v>
+        <v>9.759563683754033</v>
       </c>
       <c r="M7">
-        <v>13.27226703379189</v>
+        <v>17.86520588820844</v>
       </c>
       <c r="N7">
-        <v>13.05154512372463</v>
+        <v>18.67674525628028</v>
       </c>
       <c r="O7">
-        <v>16.31324775794714</v>
+        <v>26.66058200953805</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>9.628754900437483</v>
+        <v>13.45849583214949</v>
       </c>
       <c r="D8">
-        <v>5.976133221932561</v>
+        <v>9.033478944338565</v>
       </c>
       <c r="E8">
-        <v>8.446356770272009</v>
+        <v>14.17975174020582</v>
       </c>
       <c r="F8">
-        <v>22.61606104795661</v>
+        <v>35.08598154344475</v>
       </c>
       <c r="G8">
-        <v>25.8960775316082</v>
+        <v>37.86967656093017</v>
       </c>
       <c r="H8">
-        <v>9.768938740803135</v>
+        <v>16.65635497248464</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.987864145400375</v>
+        <v>10.61377796213094</v>
       </c>
       <c r="K8">
-        <v>16.78304588918001</v>
+        <v>14.45383155415379</v>
       </c>
       <c r="L8">
-        <v>5.491958872765198</v>
+        <v>9.739337025918239</v>
       </c>
       <c r="M8">
-        <v>14.14436125445454</v>
+        <v>18.01857861514373</v>
       </c>
       <c r="N8">
-        <v>12.93776804424427</v>
+        <v>18.62684656714368</v>
       </c>
       <c r="O8">
-        <v>16.34915703491875</v>
+        <v>26.55152755182602</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>10.36996771798072</v>
+        <v>13.51966770612579</v>
       </c>
       <c r="D9">
-        <v>6.370492730828293</v>
+        <v>9.068538540689541</v>
       </c>
       <c r="E9">
-        <v>8.586401260282699</v>
+        <v>14.13342389840495</v>
       </c>
       <c r="F9">
-        <v>23.33985170820412</v>
+        <v>34.93331159613591</v>
       </c>
       <c r="G9">
-        <v>27.05741258418654</v>
+        <v>37.70931720377756</v>
       </c>
       <c r="H9">
-        <v>9.709033211578049</v>
+        <v>16.54518675884836</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.879788102884019</v>
+        <v>10.56043835691506</v>
       </c>
       <c r="K9">
-        <v>19.34373104600443</v>
+        <v>15.28546803221992</v>
       </c>
       <c r="L9">
-        <v>5.42050879493357</v>
+        <v>9.704267094812041</v>
       </c>
       <c r="M9">
-        <v>15.73701430914726</v>
+        <v>18.33179072211053</v>
       </c>
       <c r="N9">
-        <v>12.74350167984817</v>
+        <v>18.54272052185889</v>
       </c>
       <c r="O9">
-        <v>16.53195594826506</v>
+        <v>26.37938288026921</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>10.91007627898613</v>
+        <v>13.57686290844856</v>
       </c>
       <c r="D10">
-        <v>6.655617954464519</v>
+        <v>9.099665908205573</v>
       </c>
       <c r="E10">
-        <v>8.707649995060756</v>
+        <v>14.10808053890852</v>
       </c>
       <c r="F10">
-        <v>23.96023369647634</v>
+        <v>34.85775603028713</v>
       </c>
       <c r="G10">
-        <v>28.03302144850641</v>
+        <v>37.6420900833538</v>
       </c>
       <c r="H10">
-        <v>9.699861510985032</v>
+        <v>16.47589665039495</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.808837680085801</v>
+        <v>10.52552946466915</v>
       </c>
       <c r="K10">
-        <v>21.03072182611675</v>
+        <v>15.87354015062232</v>
       </c>
       <c r="L10">
-        <v>5.372951814962613</v>
+        <v>9.681278124975936</v>
       </c>
       <c r="M10">
-        <v>16.82695462691987</v>
+        <v>18.56807224324731</v>
       </c>
       <c r="N10">
-        <v>12.61944533456522</v>
+        <v>18.48923407545044</v>
       </c>
       <c r="O10">
-        <v>16.74105752104315</v>
+        <v>26.27845052172567</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>11.1538433772039</v>
+        <v>13.60547899936383</v>
       </c>
       <c r="D11">
-        <v>6.783808033214115</v>
+        <v>9.114960517480947</v>
       </c>
       <c r="E11">
-        <v>8.766865537502193</v>
+        <v>14.09843242597135</v>
       </c>
       <c r="F11">
-        <v>24.26201169020587</v>
+        <v>34.83135765995134</v>
       </c>
       <c r="G11">
-        <v>28.50331755285625</v>
+        <v>37.62255614245513</v>
       </c>
       <c r="H11">
-        <v>9.704004750008838</v>
+        <v>16.44706455384445</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.778459406940123</v>
+        <v>10.51057136927699</v>
       </c>
       <c r="K11">
-        <v>21.75658941350077</v>
+        <v>16.13494362035378</v>
       </c>
       <c r="L11">
-        <v>5.352389343098936</v>
+        <v>9.671417746524547</v>
       </c>
       <c r="M11">
-        <v>17.30409161927192</v>
+        <v>18.6765903000272</v>
       </c>
       <c r="N11">
-        <v>12.56732883416237</v>
+        <v>18.46669894372146</v>
       </c>
       <c r="O11">
-        <v>16.85366450736097</v>
+        <v>26.23810248709434</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>11.24580483917323</v>
+        <v>13.61668255211009</v>
       </c>
       <c r="D12">
-        <v>6.83209438382739</v>
+        <v>9.120912386634542</v>
       </c>
       <c r="E12">
-        <v>8.789876818275927</v>
+        <v>14.09504875491338</v>
       </c>
       <c r="F12">
-        <v>24.37911267167012</v>
+        <v>34.82250885796949</v>
       </c>
       <c r="G12">
-        <v>28.68518705533111</v>
+        <v>37.616751415526</v>
       </c>
       <c r="H12">
-        <v>9.706832535940499</v>
+        <v>16.43653323690906</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.767234880118415</v>
+        <v>10.50503924647758</v>
       </c>
       <c r="K12">
-        <v>22.0255341283382</v>
+        <v>16.23296486150239</v>
       </c>
       <c r="L12">
-        <v>5.344757144877988</v>
+        <v>9.667769398265589</v>
       </c>
       <c r="M12">
-        <v>17.48200452373315</v>
+        <v>18.71780513275917</v>
       </c>
       <c r="N12">
-        <v>12.5482390391802</v>
+        <v>18.45842302743779</v>
       </c>
       <c r="O12">
-        <v>16.89891380117435</v>
+        <v>26.22362587813762</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>11.22601578082903</v>
+        <v>13.61425343736812</v>
       </c>
       <c r="D13">
-        <v>6.821707031165808</v>
+        <v>9.119623472814705</v>
       </c>
       <c r="E13">
-        <v>8.784894734848834</v>
+        <v>14.09576549672553</v>
       </c>
       <c r="F13">
-        <v>24.35376715791361</v>
+        <v>34.82436354664802</v>
       </c>
       <c r="G13">
-        <v>28.64585070238058</v>
+        <v>37.6179307001382</v>
       </c>
       <c r="H13">
-        <v>9.706166520256481</v>
+        <v>16.43878413962586</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.769639765525476</v>
+        <v>10.50622481582665</v>
       </c>
       <c r="K13">
-        <v>21.96787479119901</v>
+        <v>16.21189854166176</v>
       </c>
       <c r="L13">
-        <v>5.34639400432249</v>
+        <v>9.668551335362492</v>
       </c>
       <c r="M13">
-        <v>17.4438120384382</v>
+        <v>18.70892381350299</v>
       </c>
       <c r="N13">
-        <v>12.55232123967721</v>
+        <v>18.46019394499641</v>
       </c>
       <c r="O13">
-        <v>16.88905116569187</v>
+        <v>26.22670796371054</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>11.16141644193025</v>
+        <v>13.60639339952755</v>
       </c>
       <c r="D14">
-        <v>6.787785926589543</v>
+        <v>9.115446989858579</v>
       </c>
       <c r="E14">
-        <v>8.768746891618109</v>
+        <v>14.09814864443319</v>
       </c>
       <c r="F14">
-        <v>24.27158901453664</v>
+        <v>34.83060665662953</v>
       </c>
       <c r="G14">
-        <v>28.51820453524685</v>
+        <v>37.6220466537988</v>
       </c>
       <c r="H14">
-        <v>9.704211800099795</v>
+        <v>16.44619038348361</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.777530327608319</v>
+        <v>10.51011359143339</v>
       </c>
       <c r="K14">
-        <v>21.77883411951839</v>
+        <v>16.14302773503331</v>
       </c>
       <c r="L14">
-        <v>5.351758341878483</v>
+        <v>9.671115881871524</v>
       </c>
       <c r="M14">
-        <v>17.31878451073016</v>
+        <v>18.67997879137286</v>
       </c>
       <c r="N14">
-        <v>12.5657452176979</v>
+        <v>18.46601291901005</v>
       </c>
       <c r="O14">
-        <v>16.85733442317989</v>
+        <v>26.23689539805815</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>11.12180025929385</v>
+        <v>13.60162653338592</v>
       </c>
       <c r="D15">
-        <v>6.766973797080198</v>
+        <v>9.112909535314332</v>
       </c>
       <c r="E15">
-        <v>8.758932506982845</v>
+        <v>14.0996435168148</v>
       </c>
       <c r="F15">
-        <v>24.22162055095096</v>
+        <v>34.83458023470534</v>
       </c>
       <c r="G15">
-        <v>28.44050863826618</v>
+        <v>37.62477525595872</v>
       </c>
       <c r="H15">
-        <v>9.703180303053507</v>
+        <v>16.4507772965061</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.782400062607474</v>
+        <v>10.51251278061264</v>
       </c>
       <c r="K15">
-        <v>21.66227108853343</v>
+        <v>16.10071402207499</v>
       </c>
       <c r="L15">
-        <v>5.355064266472918</v>
+        <v>9.67269787330684</v>
       </c>
       <c r="M15">
-        <v>17.24183887781781</v>
+        <v>18.66226413481901</v>
       </c>
       <c r="N15">
-        <v>12.5740526358301</v>
+        <v>18.46961074359691</v>
       </c>
       <c r="O15">
-        <v>16.8382492389927</v>
+        <v>26.24324003348554</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>10.89410045658535</v>
+        <v>13.57504452483751</v>
       </c>
       <c r="D16">
-        <v>6.647206554338728</v>
+        <v>9.098688945613086</v>
       </c>
       <c r="E16">
-        <v>8.703862149870181</v>
+        <v>14.10874886162635</v>
       </c>
       <c r="F16">
-        <v>23.94090654060388</v>
+        <v>34.85964176884217</v>
       </c>
       <c r="G16">
-        <v>28.00281706652899</v>
+        <v>37.64358932398446</v>
       </c>
       <c r="H16">
-        <v>9.699763438888391</v>
+        <v>16.47783500846536</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.810861670218345</v>
+        <v>10.52652553119003</v>
       </c>
       <c r="K16">
-        <v>20.98245269843767</v>
+        <v>15.8563261653142</v>
       </c>
       <c r="L16">
-        <v>5.37431720382562</v>
+        <v>9.681934515927566</v>
       </c>
       <c r="M16">
-        <v>16.79538922670726</v>
+        <v>18.56099879695131</v>
       </c>
       <c r="N16">
-        <v>12.62294021866362</v>
+        <v>18.49074288764234</v>
       </c>
       <c r="O16">
-        <v>16.73405832809913</v>
+        <v>26.2811995357236</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>10.75386652983102</v>
+        <v>13.55939832720034</v>
       </c>
       <c r="D17">
-        <v>6.573316472314287</v>
+        <v>9.090253569988556</v>
       </c>
       <c r="E17">
-        <v>8.671120887266502</v>
+        <v>14.11481598995891</v>
       </c>
       <c r="F17">
-        <v>23.77371806698964</v>
+        <v>34.87705915842604</v>
       </c>
       <c r="G17">
-        <v>27.74107245252079</v>
+        <v>37.65796374965495</v>
       </c>
       <c r="H17">
-        <v>9.69984166383837</v>
+        <v>16.49512272328776</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.828812152190167</v>
+        <v>10.53535778114395</v>
       </c>
       <c r="K17">
-        <v>20.55479781373269</v>
+        <v>15.70477189024367</v>
       </c>
       <c r="L17">
-        <v>5.386402857541603</v>
+        <v>9.687753663850499</v>
       </c>
       <c r="M17">
-        <v>16.51665745043591</v>
+        <v>18.49912100042807</v>
       </c>
       <c r="N17">
-        <v>12.65405394781695</v>
+        <v>18.50416635048109</v>
       </c>
       <c r="O17">
-        <v>16.67468706015749</v>
+        <v>26.30591355603024</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>10.6730295369563</v>
+        <v>13.55064396154423</v>
       </c>
       <c r="D18">
-        <v>6.530676322133477</v>
+        <v>9.085508750267483</v>
       </c>
       <c r="E18">
-        <v>8.652670830593502</v>
+        <v>14.11848270076518</v>
       </c>
       <c r="F18">
-        <v>23.67939686152975</v>
+        <v>34.88782751750631</v>
       </c>
       <c r="G18">
-        <v>27.59301939273176</v>
+        <v>37.6672712781201</v>
       </c>
       <c r="H18">
-        <v>9.70066551338418</v>
+        <v>16.50531918594859</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.839314981403104</v>
+        <v>10.54052467809243</v>
       </c>
       <c r="K18">
-        <v>20.30490770431497</v>
+        <v>15.61703123781927</v>
       </c>
       <c r="L18">
-        <v>5.393455031784876</v>
+        <v>9.691156936184186</v>
       </c>
       <c r="M18">
-        <v>16.35458346488647</v>
+        <v>18.4636293325733</v>
       </c>
       <c r="N18">
-        <v>12.67235451292999</v>
+        <v>18.5120562676233</v>
       </c>
       <c r="O18">
-        <v>16.64217890059506</v>
+        <v>26.32065225951002</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>10.64563121482557</v>
+        <v>13.5477221321173</v>
       </c>
       <c r="D19">
-        <v>6.51621620775536</v>
+        <v>9.083920700455845</v>
       </c>
       <c r="E19">
-        <v>8.646489409887055</v>
+        <v>14.11975461311491</v>
       </c>
       <c r="F19">
-        <v>23.6477771067078</v>
+        <v>34.89160232290532</v>
       </c>
       <c r="G19">
-        <v>27.5433205686748</v>
+        <v>37.67060109452482</v>
       </c>
       <c r="H19">
-        <v>9.701076318310083</v>
+        <v>16.50881498445981</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.84290148324363</v>
+        <v>10.54228902494503</v>
       </c>
       <c r="K19">
-        <v>20.21962545245901</v>
+        <v>15.58722853069636</v>
       </c>
       <c r="L19">
-        <v>5.395860086313001</v>
+        <v>9.692318897684189</v>
       </c>
       <c r="M19">
-        <v>16.29940941083091</v>
+        <v>18.45163025607412</v>
       </c>
       <c r="N19">
-        <v>12.6786195670196</v>
+        <v>18.51475671989093</v>
       </c>
       <c r="O19">
-        <v>16.63145104754021</v>
+        <v>26.32573244508559</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>10.76881364644121</v>
+        <v>13.56103858817022</v>
       </c>
       <c r="D20">
-        <v>6.581197034735646</v>
+        <v>9.091140479014397</v>
       </c>
       <c r="E20">
-        <v>8.674566699556161</v>
+        <v>14.11415181292411</v>
       </c>
       <c r="F20">
-        <v>23.79132491061134</v>
+        <v>34.87512737960311</v>
       </c>
       <c r="G20">
-        <v>27.76867753184782</v>
+        <v>37.65632592848473</v>
       </c>
       <c r="H20">
-        <v>9.699752274186443</v>
+        <v>16.49325622780885</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.826882808025593</v>
+        <v>10.53440859052309</v>
       </c>
       <c r="K20">
-        <v>20.60072717413956</v>
+        <v>15.72096481634041</v>
       </c>
       <c r="L20">
-        <v>5.38510588215033</v>
+        <v>9.687128386222158</v>
       </c>
       <c r="M20">
-        <v>16.54651119639505</v>
+        <v>18.50569796733795</v>
       </c>
       <c r="N20">
-        <v>12.65069977285069</v>
+        <v>18.50271990371213</v>
       </c>
       <c r="O20">
-        <v>16.6808367428125</v>
+        <v>26.30322847579107</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>11.18040078678939</v>
+        <v>13.60869216812627</v>
       </c>
       <c r="D21">
-        <v>6.797756624660149</v>
+        <v>9.116669402981227</v>
       </c>
       <c r="E21">
-        <v>8.773473927542529</v>
+        <v>14.09744133714907</v>
       </c>
       <c r="F21">
-        <v>24.29565001995392</v>
+        <v>34.82874174807261</v>
       </c>
       <c r="G21">
-        <v>28.55559503381339</v>
+        <v>37.62079445858077</v>
       </c>
       <c r="H21">
-        <v>9.704751277034806</v>
+        <v>16.44400449173246</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.775205051806265</v>
+        <v>10.50896777966551</v>
       </c>
       <c r="K21">
-        <v>21.83452035522395</v>
+        <v>16.16328365595188</v>
       </c>
       <c r="L21">
-        <v>5.350178513734331</v>
+        <v>9.670360292973962</v>
       </c>
       <c r="M21">
-        <v>17.35558382569077</v>
+        <v>18.68847756731015</v>
       </c>
       <c r="N21">
-        <v>12.56178454155516</v>
+        <v>18.46429675773764</v>
       </c>
       <c r="O21">
-        <v>16.86657891928695</v>
+        <v>26.23388131296989</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>11.44734336088771</v>
+        <v>13.64197398680337</v>
       </c>
       <c r="D22">
-        <v>6.937781044499623</v>
+        <v>9.134285905351796</v>
       </c>
       <c r="E22">
-        <v>8.84154219240037</v>
+        <v>14.08809272092637</v>
       </c>
       <c r="F22">
-        <v>24.64171872460297</v>
+        <v>34.80511591666671</v>
       </c>
       <c r="G22">
-        <v>29.09189765686245</v>
+        <v>37.60685497406112</v>
       </c>
       <c r="H22">
-        <v>9.715385773113272</v>
+        <v>16.41407012416411</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.743060606646832</v>
+        <v>10.4931110139757</v>
       </c>
       <c r="K22">
-        <v>22.60636179987128</v>
+        <v>16.44669489099936</v>
       </c>
       <c r="L22">
-        <v>5.328251411629338</v>
+        <v>9.659899943808746</v>
       </c>
       <c r="M22">
-        <v>17.86819700663225</v>
+        <v>18.80862962476244</v>
       </c>
       <c r="N22">
-        <v>12.50744923506278</v>
+        <v>18.44068650191923</v>
       </c>
       <c r="O22">
-        <v>17.00320977604864</v>
+        <v>26.19323620589794</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>11.30507972166721</v>
+        <v>13.62401746712107</v>
       </c>
       <c r="D23">
-        <v>6.863197217296337</v>
+        <v>9.124799414685478</v>
       </c>
       <c r="E23">
-        <v>8.804898171179813</v>
+        <v>14.09293856126833</v>
       </c>
       <c r="F23">
-        <v>24.45550672314376</v>
+        <v>34.81711304341247</v>
       </c>
       <c r="G23">
-        <v>28.8036607838954</v>
+        <v>37.61344446913027</v>
       </c>
       <c r="H23">
-        <v>9.709014744718047</v>
+        <v>16.42984031145486</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.760065340034499</v>
+        <v>10.50150372497482</v>
       </c>
       <c r="K23">
-        <v>22.19755632335132</v>
+        <v>16.29597887824067</v>
       </c>
       <c r="L23">
-        <v>5.339871852071922</v>
+        <v>9.665437323117372</v>
       </c>
       <c r="M23">
-        <v>17.59610701941347</v>
+        <v>18.74444757163776</v>
       </c>
       <c r="N23">
-        <v>12.53609480912981</v>
+        <v>18.45315055867073</v>
       </c>
       <c r="O23">
-        <v>16.92886376368294</v>
+        <v>26.21450071886217</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>10.76205671814459</v>
+        <v>13.56029627553097</v>
       </c>
       <c r="D24">
-        <v>6.577634727097292</v>
+        <v>9.090739180817124</v>
       </c>
       <c r="E24">
-        <v>8.673007685282689</v>
+        <v>14.11445153088482</v>
       </c>
       <c r="F24">
-        <v>23.78335925814111</v>
+        <v>34.87599838553926</v>
       </c>
       <c r="G24">
-        <v>27.75618971241145</v>
+        <v>37.65706313734943</v>
       </c>
       <c r="H24">
-        <v>9.699790265985687</v>
+        <v>16.49409926824515</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.827754495423199</v>
+        <v>10.53483744197297</v>
       </c>
       <c r="K24">
-        <v>20.57997505293253</v>
+        <v>15.71364588798496</v>
       </c>
       <c r="L24">
-        <v>5.385691920899467</v>
+        <v>9.687410894274842</v>
       </c>
       <c r="M24">
-        <v>16.53302000329004</v>
+        <v>18.50272426092076</v>
       </c>
       <c r="N24">
-        <v>12.65221491121167</v>
+        <v>18.503373304638</v>
       </c>
       <c r="O24">
-        <v>16.67805141634737</v>
+        <v>26.30444074889567</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>10.16987304307743</v>
+        <v>13.50094713702938</v>
       </c>
       <c r="D25">
-        <v>6.264428398407109</v>
+        <v>9.058100700967525</v>
       </c>
       <c r="E25">
-        <v>8.545317915558323</v>
+        <v>14.1444279756941</v>
       </c>
       <c r="F25">
-        <v>23.12861852162775</v>
+        <v>34.96819288483857</v>
       </c>
       <c r="G25">
-        <v>26.72175960342372</v>
+        <v>37.74383937167968</v>
       </c>
       <c r="H25">
-        <v>9.7193704624039</v>
+        <v>16.57308587606429</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.907560849092412</v>
+        <v>10.57411438443765</v>
       </c>
       <c r="K25">
-        <v>18.68532176794016</v>
+        <v>15.06410334760292</v>
       </c>
       <c r="L25">
-        <v>5.438970756389309</v>
+        <v>9.713265063196705</v>
       </c>
       <c r="M25">
-        <v>15.31972482441749</v>
+        <v>18.24587114410379</v>
       </c>
       <c r="N25">
-        <v>12.79286118038001</v>
+        <v>18.56401430478504</v>
       </c>
       <c r="O25">
-        <v>16.46980452206622</v>
+        <v>26.42147491408848</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_192/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_192/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>13.46550996381809</v>
+        <v>9.731277395449723</v>
       </c>
       <c r="D2">
-        <v>9.037691232435078</v>
+        <v>6.030942691730684</v>
       </c>
       <c r="E2">
-        <v>14.17234311566548</v>
+        <v>8.463614237116616</v>
       </c>
       <c r="F2">
-        <v>35.06066457061306</v>
+        <v>22.70598384147302</v>
       </c>
       <c r="G2">
-        <v>37.84169845501361</v>
+        <v>26.04243213674975</v>
       </c>
       <c r="H2">
-        <v>16.63956290156992</v>
+        <v>9.75690138077573</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.60591078380693</v>
+        <v>5.97197444077155</v>
       </c>
       <c r="K2">
-        <v>14.57093058763786</v>
+        <v>17.15953216284337</v>
       </c>
       <c r="L2">
-        <v>9.734168444495468</v>
+        <v>5.481515453448789</v>
       </c>
       <c r="M2">
-        <v>18.0610291667824</v>
+        <v>14.37308278668409</v>
       </c>
       <c r="N2">
-        <v>18.61425711262354</v>
+        <v>12.90885568794118</v>
       </c>
       <c r="O2">
-        <v>26.52479751314108</v>
+        <v>16.36624735708013</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>13.44673030312472</v>
+        <v>9.434208750823654</v>
       </c>
       <c r="D3">
-        <v>9.02616321257651</v>
+        <v>5.871836303640008</v>
       </c>
       <c r="E3">
-        <v>14.19491578177187</v>
+        <v>8.415783611025082</v>
       </c>
       <c r="F3">
-        <v>35.13862235457602</v>
+        <v>22.45583835658508</v>
       </c>
       <c r="G3">
-        <v>37.92907678307952</v>
+        <v>25.63300524090822</v>
       </c>
       <c r="H3">
-        <v>16.68980471128704</v>
+        <v>9.795636614583367</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.62926462510353</v>
+        <v>6.019072727776837</v>
       </c>
       <c r="K3">
-        <v>14.22938384432856</v>
+        <v>16.04307783365125</v>
       </c>
       <c r="L3">
-        <v>9.749507728923547</v>
+        <v>5.512419040806297</v>
       </c>
       <c r="M3">
-        <v>17.9388952954114</v>
+        <v>13.70107326764823</v>
       </c>
       <c r="N3">
-        <v>18.65181194000182</v>
+        <v>12.99486907022458</v>
       </c>
       <c r="O3">
-        <v>26.60548198698259</v>
+        <v>16.32503336308248</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>13.43780655411631</v>
+        <v>9.252560210834877</v>
       </c>
       <c r="D4">
-        <v>9.020235064787107</v>
+        <v>5.774055820213098</v>
       </c>
       <c r="E4">
-        <v>14.210580812911</v>
+        <v>8.390078725488712</v>
       </c>
       <c r="F4">
-        <v>35.19401036964008</v>
+        <v>22.31976930375801</v>
       </c>
       <c r="G4">
-        <v>37.99306399821081</v>
+        <v>25.40642642036506</v>
       </c>
       <c r="H4">
-        <v>16.72321316538785</v>
+        <v>9.825619227019901</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.64449783093952</v>
+        <v>6.049666584918691</v>
       </c>
       <c r="K4">
-        <v>14.01679174851476</v>
+        <v>15.31668634506954</v>
       </c>
       <c r="L4">
-        <v>9.759507345446798</v>
+        <v>5.532416491877566</v>
       </c>
       <c r="M4">
-        <v>17.86560445839306</v>
+        <v>13.27464166226041</v>
       </c>
       <c r="N4">
-        <v>18.67660487773862</v>
+        <v>13.05122709791763</v>
       </c>
       <c r="O4">
-        <v>26.66026848123292</v>
+        <v>16.31328109582704</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>13.4348290307675</v>
+        <v>9.178834014649741</v>
       </c>
       <c r="D5">
-        <v>9.018110558995367</v>
+        <v>5.734241872378976</v>
       </c>
       <c r="E5">
-        <v>14.21741882707776</v>
+        <v>8.380515793433906</v>
       </c>
       <c r="F5">
-        <v>35.21846970849921</v>
+        <v>22.26865955404341</v>
       </c>
       <c r="G5">
-        <v>38.02173049634263</v>
+        <v>25.32026223772183</v>
       </c>
       <c r="H5">
-        <v>16.73747101671368</v>
+        <v>9.839343699283951</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.65093073946713</v>
+        <v>6.062551807855133</v>
       </c>
       <c r="K5">
-        <v>13.92955098204514</v>
+        <v>15.01036813133681</v>
       </c>
       <c r="L5">
-        <v>9.763728810624576</v>
+        <v>5.540822901435364</v>
       </c>
       <c r="M5">
-        <v>17.836188320585</v>
+        <v>13.09761057710953</v>
       </c>
       <c r="N5">
-        <v>18.68714504118716</v>
+        <v>13.07507027644614</v>
       </c>
       <c r="O5">
-        <v>26.68391153685605</v>
+        <v>16.31178721363466</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>13.43437450648271</v>
+        <v>9.166613019179279</v>
       </c>
       <c r="D6">
-        <v>9.017775435274789</v>
+        <v>5.727634393636728</v>
       </c>
       <c r="E6">
-        <v>14.21858172966471</v>
+        <v>8.378982667930769</v>
       </c>
       <c r="F6">
-        <v>35.22264511239875</v>
+        <v>22.2604327274225</v>
       </c>
       <c r="G6">
-        <v>38.02664679753678</v>
+        <v>25.30632475378313</v>
       </c>
       <c r="H6">
-        <v>16.73987739475895</v>
+        <v>9.841712104160296</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.652012538143</v>
+        <v>6.064716543513262</v>
       </c>
       <c r="K6">
-        <v>13.91503152525671</v>
+        <v>14.95888099050148</v>
       </c>
       <c r="L6">
-        <v>9.764438643689745</v>
+        <v>5.542234324476326</v>
       </c>
       <c r="M6">
-        <v>17.83133166047465</v>
+        <v>13.06802501300805</v>
       </c>
       <c r="N6">
-        <v>18.68892163448967</v>
+        <v>13.07908196750361</v>
       </c>
       <c r="O6">
-        <v>26.6879169381837</v>
+        <v>16.31173481737719</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>13.43776372585182</v>
+        <v>9.251564564841569</v>
       </c>
       <c r="D7">
-        <v>9.020205231029887</v>
+        <v>5.773518670359476</v>
       </c>
       <c r="E7">
-        <v>14.21067119242767</v>
+        <v>8.38994607669494</v>
       </c>
       <c r="F7">
-        <v>35.19433259566969</v>
+        <v>22.31906254625427</v>
       </c>
       <c r="G7">
-        <v>37.99344012423033</v>
+        <v>25.40523951539202</v>
       </c>
       <c r="H7">
-        <v>16.72340284576795</v>
+        <v>9.825798289472948</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.64458367470194</v>
+        <v>6.049838671286247</v>
       </c>
       <c r="K7">
-        <v>14.01561749177645</v>
+        <v>15.31259699801585</v>
       </c>
       <c r="L7">
-        <v>9.759563683754033</v>
+        <v>5.532528821654727</v>
       </c>
       <c r="M7">
-        <v>17.86520588820844</v>
+        <v>13.27226703379185</v>
       </c>
       <c r="N7">
-        <v>18.67674525628028</v>
+        <v>13.05154512372459</v>
       </c>
       <c r="O7">
-        <v>26.66058200953805</v>
+        <v>16.3132477579471</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>13.45849583214949</v>
+        <v>9.628754900437404</v>
       </c>
       <c r="D8">
-        <v>9.033478944338565</v>
+        <v>5.976133221932528</v>
       </c>
       <c r="E8">
-        <v>14.17975174020582</v>
+        <v>8.446356770272063</v>
       </c>
       <c r="F8">
-        <v>35.08598154344475</v>
+        <v>22.61606104795652</v>
       </c>
       <c r="G8">
-        <v>37.86967656093017</v>
+        <v>25.89607753160805</v>
       </c>
       <c r="H8">
-        <v>16.65635497248464</v>
+        <v>9.768938740803138</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.61377796213094</v>
+        <v>5.987864145400436</v>
       </c>
       <c r="K8">
-        <v>14.45383155415379</v>
+        <v>16.78304588917999</v>
       </c>
       <c r="L8">
-        <v>9.739337025918239</v>
+        <v>5.491958872765264</v>
       </c>
       <c r="M8">
-        <v>18.01857861514373</v>
+        <v>14.14436125445454</v>
       </c>
       <c r="N8">
-        <v>18.62684656714368</v>
+        <v>12.93776804424424</v>
       </c>
       <c r="O8">
-        <v>26.55152755182602</v>
+        <v>16.34915703491871</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>13.51966770612579</v>
+        <v>10.36996771798063</v>
       </c>
       <c r="D9">
-        <v>9.068538540689541</v>
+        <v>6.370492730828177</v>
       </c>
       <c r="E9">
-        <v>14.13342389840495</v>
+        <v>8.586401260282633</v>
       </c>
       <c r="F9">
-        <v>34.93331159613591</v>
+        <v>23.33985170820407</v>
       </c>
       <c r="G9">
-        <v>37.70931720377756</v>
+        <v>27.05741258418654</v>
       </c>
       <c r="H9">
-        <v>16.54518675884836</v>
+        <v>9.709033211578031</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.56043835691506</v>
+        <v>5.879788102884076</v>
       </c>
       <c r="K9">
-        <v>15.28546803221992</v>
+        <v>19.34373104600438</v>
       </c>
       <c r="L9">
-        <v>9.704267094812041</v>
+        <v>5.420508794933605</v>
       </c>
       <c r="M9">
-        <v>18.33179072211053</v>
+        <v>15.73701430914724</v>
       </c>
       <c r="N9">
-        <v>18.54272052185889</v>
+        <v>12.74350167984823</v>
       </c>
       <c r="O9">
-        <v>26.37938288026921</v>
+        <v>16.53195594826509</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>13.57686290844856</v>
+        <v>10.91007627898623</v>
       </c>
       <c r="D10">
-        <v>9.099665908205573</v>
+        <v>6.655617954464675</v>
       </c>
       <c r="E10">
-        <v>14.10808053890852</v>
+        <v>8.707649995060846</v>
       </c>
       <c r="F10">
-        <v>34.85775603028713</v>
+        <v>23.96023369647651</v>
       </c>
       <c r="G10">
-        <v>37.6420900833538</v>
+        <v>28.03302144850651</v>
       </c>
       <c r="H10">
-        <v>16.47589665039495</v>
+        <v>9.699861510985079</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.52552946466915</v>
+        <v>5.808837680085738</v>
       </c>
       <c r="K10">
-        <v>15.87354015062232</v>
+        <v>21.03072182611671</v>
       </c>
       <c r="L10">
-        <v>9.681278124975936</v>
+        <v>5.372951814962613</v>
       </c>
       <c r="M10">
-        <v>18.56807224324731</v>
+        <v>16.82695462691991</v>
       </c>
       <c r="N10">
-        <v>18.48923407545044</v>
+        <v>12.61944533456522</v>
       </c>
       <c r="O10">
-        <v>26.27845052172567</v>
+        <v>16.74105752104319</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>13.60547899936383</v>
+        <v>11.15384337720401</v>
       </c>
       <c r="D11">
-        <v>9.114960517480947</v>
+        <v>6.78380803321402</v>
       </c>
       <c r="E11">
-        <v>14.09843242597135</v>
+        <v>8.766865537502115</v>
       </c>
       <c r="F11">
-        <v>34.83135765995134</v>
+        <v>24.26201169020573</v>
       </c>
       <c r="G11">
-        <v>37.62255614245513</v>
+        <v>28.50331755285617</v>
       </c>
       <c r="H11">
-        <v>16.44706455384445</v>
+        <v>9.704004750008846</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.51057136927699</v>
+        <v>5.778459406940159</v>
       </c>
       <c r="K11">
-        <v>16.13494362035378</v>
+        <v>21.75658941350081</v>
       </c>
       <c r="L11">
-        <v>9.671417746524547</v>
+        <v>5.352389343098812</v>
       </c>
       <c r="M11">
-        <v>18.6765903000272</v>
+        <v>17.3040916192719</v>
       </c>
       <c r="N11">
-        <v>18.46669894372146</v>
+        <v>12.56732883416234</v>
       </c>
       <c r="O11">
-        <v>26.23810248709434</v>
+        <v>16.85366450736093</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>13.61668255211009</v>
+        <v>11.24580483917314</v>
       </c>
       <c r="D12">
-        <v>9.120912386634542</v>
+        <v>6.832094383827451</v>
       </c>
       <c r="E12">
-        <v>14.09504875491338</v>
+        <v>8.789876818275932</v>
       </c>
       <c r="F12">
-        <v>34.82250885796949</v>
+        <v>24.37911267167018</v>
       </c>
       <c r="G12">
-        <v>37.616751415526</v>
+        <v>28.68518705533117</v>
       </c>
       <c r="H12">
-        <v>16.43653323690906</v>
+        <v>9.706832535940507</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.50503924647758</v>
+        <v>5.767234880118421</v>
       </c>
       <c r="K12">
-        <v>16.23296486150239</v>
+        <v>22.0255341283382</v>
       </c>
       <c r="L12">
-        <v>9.667769398265589</v>
+        <v>5.34475714487799</v>
       </c>
       <c r="M12">
-        <v>18.71780513275917</v>
+        <v>17.48200452373317</v>
       </c>
       <c r="N12">
-        <v>18.45842302743779</v>
+        <v>12.5482390391802</v>
       </c>
       <c r="O12">
-        <v>26.22362587813762</v>
+        <v>16.89891380117437</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>13.61425343736812</v>
+        <v>11.226015780829</v>
       </c>
       <c r="D13">
-        <v>9.119623472814705</v>
+        <v>6.821707031165775</v>
       </c>
       <c r="E13">
-        <v>14.09576549672553</v>
+        <v>8.784894734848882</v>
       </c>
       <c r="F13">
-        <v>34.82436354664802</v>
+        <v>24.3537671579136</v>
       </c>
       <c r="G13">
-        <v>37.6179307001382</v>
+        <v>28.64585070238062</v>
       </c>
       <c r="H13">
-        <v>16.43878413962586</v>
+        <v>9.706166520256486</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.50622481582665</v>
+        <v>5.769639765525597</v>
       </c>
       <c r="K13">
-        <v>16.21189854166176</v>
+        <v>21.96787479119902</v>
       </c>
       <c r="L13">
-        <v>9.668551335362492</v>
+        <v>5.346394004322614</v>
       </c>
       <c r="M13">
-        <v>18.70892381350299</v>
+        <v>17.44381203843822</v>
       </c>
       <c r="N13">
-        <v>18.46019394499641</v>
+        <v>12.55232123967721</v>
       </c>
       <c r="O13">
-        <v>26.22670796371054</v>
+        <v>16.8890511656919</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>13.60639339952755</v>
+        <v>11.16141644193028</v>
       </c>
       <c r="D14">
-        <v>9.115446989858579</v>
+        <v>6.78778592658946</v>
       </c>
       <c r="E14">
-        <v>14.09814864443319</v>
+        <v>8.768746891617967</v>
       </c>
       <c r="F14">
-        <v>34.83060665662953</v>
+        <v>24.27158901453656</v>
       </c>
       <c r="G14">
-        <v>37.6220466537988</v>
+        <v>28.5182045352469</v>
       </c>
       <c r="H14">
-        <v>16.44619038348361</v>
+        <v>9.704211800099708</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.51011359143339</v>
+        <v>5.777530327608347</v>
       </c>
       <c r="K14">
-        <v>16.14302773503331</v>
+        <v>21.7788341195184</v>
       </c>
       <c r="L14">
-        <v>9.671115881871524</v>
+        <v>5.351758341878512</v>
       </c>
       <c r="M14">
-        <v>18.67997879137286</v>
+        <v>17.31878451073013</v>
       </c>
       <c r="N14">
-        <v>18.46601291901005</v>
+        <v>12.56574521769788</v>
       </c>
       <c r="O14">
-        <v>26.23689539805815</v>
+        <v>16.85733442317985</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>13.60162653338592</v>
+        <v>11.12180025929382</v>
       </c>
       <c r="D15">
-        <v>9.112909535314332</v>
+        <v>6.766973797080135</v>
       </c>
       <c r="E15">
-        <v>14.0996435168148</v>
+        <v>8.758932506982839</v>
       </c>
       <c r="F15">
-        <v>34.83458023470534</v>
+        <v>24.22162055095093</v>
       </c>
       <c r="G15">
-        <v>37.62477525595872</v>
+        <v>28.44050863826626</v>
       </c>
       <c r="H15">
-        <v>16.4507772965061</v>
+        <v>9.703180303053461</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.51251278061264</v>
+        <v>5.782400062607502</v>
       </c>
       <c r="K15">
-        <v>16.10071402207499</v>
+        <v>21.66227108853344</v>
       </c>
       <c r="L15">
-        <v>9.67269787330684</v>
+        <v>5.355064266472918</v>
       </c>
       <c r="M15">
-        <v>18.66226413481901</v>
+        <v>17.24183887781781</v>
       </c>
       <c r="N15">
-        <v>18.46961074359691</v>
+        <v>12.5740526358301</v>
       </c>
       <c r="O15">
-        <v>26.24324003348554</v>
+        <v>16.8382492389927</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>13.57504452483751</v>
+        <v>10.89410045658536</v>
       </c>
       <c r="D16">
-        <v>9.098688945613086</v>
+        <v>6.647206554338831</v>
       </c>
       <c r="E16">
-        <v>14.10874886162635</v>
+        <v>8.703862149870176</v>
       </c>
       <c r="F16">
-        <v>34.85964176884217</v>
+        <v>23.94090654060381</v>
       </c>
       <c r="G16">
-        <v>37.64358932398446</v>
+        <v>28.00281706652885</v>
       </c>
       <c r="H16">
-        <v>16.47783500846536</v>
+        <v>9.699763438888183</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.52652553119003</v>
+        <v>5.810861670218283</v>
       </c>
       <c r="K16">
-        <v>15.8563261653142</v>
+        <v>20.9824526984377</v>
       </c>
       <c r="L16">
-        <v>9.681934515927566</v>
+        <v>5.374317203825653</v>
       </c>
       <c r="M16">
-        <v>18.56099879695131</v>
+        <v>16.79538922670724</v>
       </c>
       <c r="N16">
-        <v>18.49074288764234</v>
+        <v>12.62294021866359</v>
       </c>
       <c r="O16">
-        <v>26.2811995357236</v>
+        <v>16.73405832809903</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>13.55939832720034</v>
+        <v>10.75386652983109</v>
       </c>
       <c r="D17">
-        <v>9.090253569988556</v>
+        <v>6.573316472314287</v>
       </c>
       <c r="E17">
-        <v>14.11481598995891</v>
+        <v>8.671120887266559</v>
       </c>
       <c r="F17">
-        <v>34.87705915842604</v>
+        <v>23.77371806698957</v>
       </c>
       <c r="G17">
-        <v>37.65796374965495</v>
+        <v>27.74107245252068</v>
       </c>
       <c r="H17">
-        <v>16.49512272328776</v>
+        <v>9.699841663838324</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.53535778114395</v>
+        <v>5.828812152190198</v>
       </c>
       <c r="K17">
-        <v>15.70477189024367</v>
+        <v>20.55479781373269</v>
       </c>
       <c r="L17">
-        <v>9.687753663850499</v>
+        <v>5.386402857541603</v>
       </c>
       <c r="M17">
-        <v>18.49912100042807</v>
+        <v>16.51665745043592</v>
       </c>
       <c r="N17">
-        <v>18.50416635048109</v>
+        <v>12.65405394781692</v>
       </c>
       <c r="O17">
-        <v>26.30591355603024</v>
+        <v>16.67468706015744</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>13.55064396154423</v>
+        <v>10.67302953695631</v>
       </c>
       <c r="D18">
-        <v>9.085508750267483</v>
+        <v>6.530676322133464</v>
       </c>
       <c r="E18">
-        <v>14.11848270076518</v>
+        <v>8.652670830593502</v>
       </c>
       <c r="F18">
-        <v>34.88782751750631</v>
+        <v>23.67939686152975</v>
       </c>
       <c r="G18">
-        <v>37.6672712781201</v>
+        <v>27.5930193927318</v>
       </c>
       <c r="H18">
-        <v>16.50531918594859</v>
+        <v>9.700665513384218</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.54052467809243</v>
+        <v>5.839314981403109</v>
       </c>
       <c r="K18">
-        <v>15.61703123781927</v>
+        <v>20.30490770431494</v>
       </c>
       <c r="L18">
-        <v>9.691156936184186</v>
+        <v>5.393455031784848</v>
       </c>
       <c r="M18">
-        <v>18.4636293325733</v>
+        <v>16.35458346488648</v>
       </c>
       <c r="N18">
-        <v>18.5120562676233</v>
+        <v>12.67235451293</v>
       </c>
       <c r="O18">
-        <v>26.32065225951002</v>
+        <v>16.64217890059505</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>13.5477221321173</v>
+        <v>10.64563121482566</v>
       </c>
       <c r="D19">
-        <v>9.083920700455845</v>
+        <v>6.516216207755295</v>
       </c>
       <c r="E19">
-        <v>14.11975461311491</v>
+        <v>8.646489409887053</v>
       </c>
       <c r="F19">
-        <v>34.89160232290532</v>
+        <v>23.64777710670781</v>
       </c>
       <c r="G19">
-        <v>37.67060109452482</v>
+        <v>27.54332056867489</v>
       </c>
       <c r="H19">
-        <v>16.50881498445981</v>
+        <v>9.701076318310079</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.54228902494503</v>
+        <v>5.842901483243568</v>
       </c>
       <c r="K19">
-        <v>15.58722853069636</v>
+        <v>20.21962545245902</v>
       </c>
       <c r="L19">
-        <v>9.692318897684189</v>
+        <v>5.395860086312938</v>
       </c>
       <c r="M19">
-        <v>18.45163025607412</v>
+        <v>16.29940941083091</v>
       </c>
       <c r="N19">
-        <v>18.51475671989093</v>
+        <v>12.67861956701963</v>
       </c>
       <c r="O19">
-        <v>26.32573244508559</v>
+        <v>16.63145104754021</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>13.56103858817022</v>
+        <v>10.76881364644123</v>
       </c>
       <c r="D20">
-        <v>9.091140479014397</v>
+        <v>6.581197034735562</v>
       </c>
       <c r="E20">
-        <v>14.11415181292411</v>
+        <v>8.674566699556165</v>
       </c>
       <c r="F20">
-        <v>34.87512737960311</v>
+        <v>23.79132491061126</v>
       </c>
       <c r="G20">
-        <v>37.65632592848473</v>
+        <v>27.76867753184784</v>
       </c>
       <c r="H20">
-        <v>16.49325622780885</v>
+        <v>9.699752274186405</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.53440859052309</v>
+        <v>5.826882808025684</v>
       </c>
       <c r="K20">
-        <v>15.72096481634041</v>
+        <v>20.60072717413959</v>
       </c>
       <c r="L20">
-        <v>9.687128386222158</v>
+        <v>5.38510588215033</v>
       </c>
       <c r="M20">
-        <v>18.50569796733795</v>
+        <v>16.54651119639505</v>
       </c>
       <c r="N20">
-        <v>18.50271990371213</v>
+        <v>12.65069977285068</v>
       </c>
       <c r="O20">
-        <v>26.30322847579107</v>
+        <v>16.68083674281246</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>13.60869216812627</v>
+        <v>11.1804007867894</v>
       </c>
       <c r="D21">
-        <v>9.116669402981227</v>
+        <v>6.797756624660062</v>
       </c>
       <c r="E21">
-        <v>14.09744133714907</v>
+        <v>8.77347392754257</v>
       </c>
       <c r="F21">
-        <v>34.82874174807261</v>
+        <v>24.29565001995378</v>
       </c>
       <c r="G21">
-        <v>37.62079445858077</v>
+        <v>28.55559503381324</v>
       </c>
       <c r="H21">
-        <v>16.44400449173246</v>
+        <v>9.704751277034717</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.50896777966551</v>
+        <v>5.775205051806382</v>
       </c>
       <c r="K21">
-        <v>16.16328365595188</v>
+        <v>21.834520355224</v>
       </c>
       <c r="L21">
-        <v>9.670360292973962</v>
+        <v>5.350178513734393</v>
       </c>
       <c r="M21">
-        <v>18.68847756731015</v>
+        <v>17.35558382569077</v>
       </c>
       <c r="N21">
-        <v>18.46429675773764</v>
+        <v>12.56178454155513</v>
       </c>
       <c r="O21">
-        <v>26.23388131296989</v>
+        <v>16.86657891928687</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>13.64197398680337</v>
+        <v>11.44734336088779</v>
       </c>
       <c r="D22">
-        <v>9.134285905351796</v>
+        <v>6.93778104449963</v>
       </c>
       <c r="E22">
-        <v>14.08809272092637</v>
+        <v>8.841542192400501</v>
       </c>
       <c r="F22">
-        <v>34.80511591666671</v>
+        <v>24.64171872460312</v>
       </c>
       <c r="G22">
-        <v>37.60685497406112</v>
+        <v>29.09189765686261</v>
       </c>
       <c r="H22">
-        <v>16.41407012416411</v>
+        <v>9.715385773113356</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.4931110139757</v>
+        <v>5.743060606646922</v>
       </c>
       <c r="K22">
-        <v>16.44669489099936</v>
+        <v>22.60636179987122</v>
       </c>
       <c r="L22">
-        <v>9.659899943808746</v>
+        <v>5.328251411629366</v>
       </c>
       <c r="M22">
-        <v>18.80862962476244</v>
+        <v>17.86819700663228</v>
       </c>
       <c r="N22">
-        <v>18.44068650191923</v>
+        <v>12.50744923506293</v>
       </c>
       <c r="O22">
-        <v>26.19323620589794</v>
+        <v>17.0032097760488</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>13.62401746712107</v>
+        <v>11.30507972166728</v>
       </c>
       <c r="D23">
-        <v>9.124799414685478</v>
+        <v>6.863197217296321</v>
       </c>
       <c r="E23">
-        <v>14.09293856126833</v>
+        <v>8.804898171179852</v>
       </c>
       <c r="F23">
-        <v>34.81711304341247</v>
+        <v>24.45550672314384</v>
       </c>
       <c r="G23">
-        <v>37.61344446913027</v>
+        <v>28.80366078389558</v>
       </c>
       <c r="H23">
-        <v>16.42984031145486</v>
+        <v>9.709014744718047</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.50150372497482</v>
+        <v>5.760065340034529</v>
       </c>
       <c r="K23">
-        <v>16.29597887824067</v>
+        <v>22.19755632335127</v>
       </c>
       <c r="L23">
-        <v>9.665437323117372</v>
+        <v>5.339871852071858</v>
       </c>
       <c r="M23">
-        <v>18.74444757163776</v>
+        <v>17.59610701941349</v>
       </c>
       <c r="N23">
-        <v>18.45315055867073</v>
+        <v>12.53609480912987</v>
       </c>
       <c r="O23">
-        <v>26.21450071886217</v>
+        <v>16.92886376368303</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>13.56029627553097</v>
+        <v>10.76205671814464</v>
       </c>
       <c r="D24">
-        <v>9.090739180817124</v>
+        <v>6.577634727097272</v>
       </c>
       <c r="E24">
-        <v>14.11445153088482</v>
+        <v>8.673007685282691</v>
       </c>
       <c r="F24">
-        <v>34.87599838553926</v>
+        <v>23.7833592581412</v>
       </c>
       <c r="G24">
-        <v>37.65706313734943</v>
+        <v>27.75618971241156</v>
       </c>
       <c r="H24">
-        <v>16.49409926824515</v>
+        <v>9.699790265985699</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.53483744197297</v>
+        <v>5.827754495423197</v>
       </c>
       <c r="K24">
-        <v>15.71364588798496</v>
+        <v>20.57997505293249</v>
       </c>
       <c r="L24">
-        <v>9.687410894274842</v>
+        <v>5.3856919208995</v>
       </c>
       <c r="M24">
-        <v>18.50272426092076</v>
+        <v>16.53302000329007</v>
       </c>
       <c r="N24">
-        <v>18.503373304638</v>
+        <v>12.65221491121167</v>
       </c>
       <c r="O24">
-        <v>26.30444074889567</v>
+        <v>16.67805141634744</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>13.50094713702938</v>
+        <v>10.16987304307737</v>
       </c>
       <c r="D25">
-        <v>9.058100700967525</v>
+        <v>6.264428398407107</v>
       </c>
       <c r="E25">
-        <v>14.1444279756941</v>
+        <v>8.545317915558318</v>
       </c>
       <c r="F25">
-        <v>34.96819288483857</v>
+        <v>23.12861852162785</v>
       </c>
       <c r="G25">
-        <v>37.74383937167968</v>
+        <v>26.7217596034239</v>
       </c>
       <c r="H25">
-        <v>16.57308587606429</v>
+        <v>9.719370462403951</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.57411438443765</v>
+        <v>5.90756084909241</v>
       </c>
       <c r="K25">
-        <v>15.06410334760292</v>
+        <v>18.68532176794013</v>
       </c>
       <c r="L25">
-        <v>9.713265063196705</v>
+        <v>5.438970756389272</v>
       </c>
       <c r="M25">
-        <v>18.24587114410379</v>
+        <v>15.3197248244175</v>
       </c>
       <c r="N25">
-        <v>18.56401430478504</v>
+        <v>12.79286118038004</v>
       </c>
       <c r="O25">
-        <v>26.42147491408848</v>
+        <v>16.46980452206634</v>
       </c>
     </row>
   </sheetData>
